--- a/prev_known.xlsx
+++ b/prev_known.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78878FF8-DA14-4302-B075-D672F17DF6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE737963-A093-4A34-960C-57D003086F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="2790" yWindow="3525" windowWidth="25515" windowHeight="16755" activeTab="3" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="other_known" sheetId="2" r:id="rId1"/>
     <sheet name="C&amp;C_2022_overall" sheetId="1" r:id="rId2"/>
     <sheet name="C&amp;C_2022_ag_female" sheetId="3" r:id="rId3"/>
+    <sheet name="C&amp;C_2022_ag_male" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="sp7.26k_m_all" localSheetId="1">'C&amp;C_2022_overall'!$G$20</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="634">
   <si>
     <r>
       <t>C&amp;C AC Track and Field records  - Overall club records</t>
@@ -1427,6 +1428,600 @@
   </si>
   <si>
     <t>PenU13W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013 </t>
+  </si>
+  <si>
+    <t>21.07</t>
+  </si>
+  <si>
+    <t>Benjamin Snaith</t>
+  </si>
+  <si>
+    <t>47.14</t>
+  </si>
+  <si>
+    <t>1:48.93</t>
+  </si>
+  <si>
+    <t>Edward Aston</t>
+  </si>
+  <si>
+    <t>3:41.44</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Thomas Keen</t>
+  </si>
+  <si>
+    <t>8:10.2</t>
+  </si>
+  <si>
+    <t>Alex Melloy</t>
+  </si>
+  <si>
+    <t>5000m</t>
+  </si>
+  <si>
+    <t>14:37.51</t>
+  </si>
+  <si>
+    <t>Kieran Wood</t>
+  </si>
+  <si>
+    <t>4:11.5</t>
+  </si>
+  <si>
+    <t>Sprint Hurdles  3’3”</t>
+  </si>
+  <si>
+    <t>13.72</t>
+  </si>
+  <si>
+    <t>Ben Kelk</t>
+  </si>
+  <si>
+    <t>54.2</t>
+  </si>
+  <si>
+    <t>Samuel Clarke</t>
+  </si>
+  <si>
+    <t>5:54.0</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>Graham Tuck</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>Martin Shorten</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>Nigel Coyle</t>
+  </si>
+  <si>
+    <t>15.52</t>
+  </si>
+  <si>
+    <t>Dennis Greene</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>Mark Jennings</t>
+  </si>
+  <si>
+    <t>Shot 6kg</t>
+  </si>
+  <si>
+    <t>14.40</t>
+  </si>
+  <si>
+    <t>Oliver Holway</t>
+  </si>
+  <si>
+    <t>Disc 1.75kg</t>
+  </si>
+  <si>
+    <t>46.83</t>
+  </si>
+  <si>
+    <t>Kristiaan Winkel</t>
+  </si>
+  <si>
+    <t>Discus 2kg</t>
+  </si>
+  <si>
+    <t>42.55</t>
+  </si>
+  <si>
+    <t>2021`</t>
+  </si>
+  <si>
+    <t>Javelin (post 1986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             (pre 1986)</t>
+  </si>
+  <si>
+    <t>57.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Bradley </t>
+  </si>
+  <si>
+    <t>Bogas Kawalko</t>
+  </si>
+  <si>
+    <t>Ham.6kg</t>
+  </si>
+  <si>
+    <t>47.82</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Oliver Hoad</t>
+  </si>
+  <si>
+    <t>2345 pts</t>
+  </si>
+  <si>
+    <t>Decathlon</t>
+  </si>
+  <si>
+    <t>5790 pts</t>
+  </si>
+  <si>
+    <t>45.1</t>
+  </si>
+  <si>
+    <t>Post 2007</t>
+  </si>
+  <si>
+    <t>J Godden, G Baker,L Crabb ,C Morter</t>
+  </si>
+  <si>
+    <t>3:22.5</t>
+  </si>
+  <si>
+    <t>E Aston, D Potts, D Baker, O Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Under 20 men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 17 Men </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 </t>
+  </si>
+  <si>
+    <t>Timothy Cobden</t>
+  </si>
+  <si>
+    <t>Matthew Clements</t>
+  </si>
+  <si>
+    <t>Benedict Kelk</t>
+  </si>
+  <si>
+    <t>Thomas Bridger</t>
+  </si>
+  <si>
+    <t>Innes Murray</t>
+  </si>
+  <si>
+    <t>Deshawn Lascelles</t>
+  </si>
+  <si>
+    <t>C. Hyde</t>
+  </si>
+  <si>
+    <t>John Blackwell</t>
+  </si>
+  <si>
+    <t>David Croxon</t>
+  </si>
+  <si>
+    <t>Jav 700gm</t>
+  </si>
+  <si>
+    <t>2479 pts</t>
+  </si>
+  <si>
+    <t>William Blackwell</t>
+  </si>
+  <si>
+    <t>Octathlon</t>
+  </si>
+  <si>
+    <t>4234 pts</t>
+  </si>
+  <si>
+    <t>Ben Motherwell</t>
+  </si>
+  <si>
+    <t>44.39 s</t>
+  </si>
+  <si>
+    <t>B Snaith, J Ebanks, J Mair, D Doggett</t>
+  </si>
+  <si>
+    <t>21.67</t>
+  </si>
+  <si>
+    <t>47.92</t>
+  </si>
+  <si>
+    <t>1:53.38</t>
+  </si>
+  <si>
+    <t>3:41.4</t>
+  </si>
+  <si>
+    <t>8:22.60</t>
+  </si>
+  <si>
+    <t>12.47</t>
+  </si>
+  <si>
+    <t>54.94</t>
+  </si>
+  <si>
+    <t>4:40.4</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>14.85</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>15.47</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>54.96</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>62.56</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>53.93</t>
+  </si>
+  <si>
+    <t>George Keen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:17.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 </t>
+  </si>
+  <si>
+    <t>Under 15 Boys</t>
+  </si>
+  <si>
+    <t>Mathew Clements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300m </t>
+  </si>
+  <si>
+    <t>Paul Lambrecht</t>
+  </si>
+  <si>
+    <t>Ewan Taylor</t>
+  </si>
+  <si>
+    <t>Robert Huckle</t>
+  </si>
+  <si>
+    <t>Samuel Boden</t>
+  </si>
+  <si>
+    <t>80m Sprint Hurdles</t>
+  </si>
+  <si>
+    <t>Ben Abbott-gribben</t>
+  </si>
+  <si>
+    <t>Billy White</t>
+  </si>
+  <si>
+    <t>Nick Grundy</t>
+  </si>
+  <si>
+    <t>Morgan Young</t>
+  </si>
+  <si>
+    <t>Luke Shortman</t>
+  </si>
+  <si>
+    <t>2563 Pts</t>
+  </si>
+  <si>
+    <t>David October</t>
+  </si>
+  <si>
+    <t>J.Ebanks,W.Blackwell,J.Mair,B.Snaith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.54 </t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>2:01.7</t>
+  </si>
+  <si>
+    <t>4:10.65</t>
+  </si>
+  <si>
+    <t>9:08.5</t>
+  </si>
+  <si>
+    <t>4:43.6</t>
+  </si>
+  <si>
+    <t>10.71</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>12.94</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>13.90</t>
+  </si>
+  <si>
+    <t>43.66</t>
+  </si>
+  <si>
+    <t>55.21</t>
+  </si>
+  <si>
+    <t>50.01</t>
+  </si>
+  <si>
+    <t>46.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 13 Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Dant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1977 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca McGrath </t>
+  </si>
+  <si>
+    <t>Isaac Morris</t>
+  </si>
+  <si>
+    <t>75m Hurdles</t>
+  </si>
+  <si>
+    <t>Damian Quinn</t>
+  </si>
+  <si>
+    <t>James Cross</t>
+  </si>
+  <si>
+    <t>Shot 3 kg</t>
+  </si>
+  <si>
+    <t>Christopher Springett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jav 400 gm  </t>
+  </si>
+  <si>
+    <t>Frederic Kastner</t>
+  </si>
+  <si>
+    <t>77 pts</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>Samuel Clarke/James Richer</t>
+  </si>
+  <si>
+    <t>J Langford, J Markley,B Kelk ,A Morter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0 </t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>2:13.3</t>
+  </si>
+  <si>
+    <t>4:33.8</t>
+  </si>
+  <si>
+    <t>5:18.6</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.06 </t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 11 Boys </t>
+  </si>
+  <si>
+    <t>Joseph Ebanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Mc.Grath </t>
+  </si>
+  <si>
+    <t>Ollie Waters</t>
+  </si>
+  <si>
+    <t>1:49.4</t>
+  </si>
+  <si>
+    <t>2:38.0</t>
+  </si>
+  <si>
+    <t>5:14.8</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>SP6K</t>
+  </si>
+  <si>
+    <t>DT1.75K</t>
+  </si>
+  <si>
+    <t>PenU20M</t>
+  </si>
+  <si>
+    <t>DT1.25K</t>
+  </si>
+  <si>
+    <t>Assumed weight from modern competition</t>
+  </si>
+  <si>
+    <t>PenU15M</t>
+  </si>
+  <si>
+    <t>80H</t>
+  </si>
+  <si>
+    <t>100H</t>
+  </si>
+  <si>
+    <t>JT700</t>
+  </si>
+  <si>
+    <t>PenU17M</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Guess this is obsolete event now</t>
+  </si>
+  <si>
+    <t>110HU20M</t>
+  </si>
+  <si>
+    <t>Checked Po10 for event</t>
+  </si>
+  <si>
+    <t>Assuming same as modern event for age group</t>
+  </si>
+  <si>
+    <t>HT6K</t>
+  </si>
+  <si>
+    <t>SP5K</t>
+  </si>
+  <si>
+    <t>DT1.5K</t>
   </si>
 </sst>
 </file>
@@ -3325,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E116B990-5FBC-4F60-A519-6D8AF60704F6}">
   <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5357,4 +5952,1985 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
+  <dimension ref="A2:K88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="19.140625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="33.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C47" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C49" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C53" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C55" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C57" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C58" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C59" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C60" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C63" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C65" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C66" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C67" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C68" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C72" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C73" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C74" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C75" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C76" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C77" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C78" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C79" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C80" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C81" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C82" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C88" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/prev_known.xlsx
+++ b/prev_known.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\powerof10-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE737963-A093-4A34-960C-57D003086F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D214273-CCE5-4128-BDA1-AC2CB8DDCE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="3525" windowWidth="25515" windowHeight="16755" activeTab="3" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="other_known" sheetId="2" r:id="rId1"/>
@@ -1988,12 +1988,6 @@
     <t>PenU15M</t>
   </si>
   <si>
-    <t>80H</t>
-  </si>
-  <si>
-    <t>100H</t>
-  </si>
-  <si>
     <t>JT700</t>
   </si>
   <si>
@@ -2022,6 +2016,12 @@
   </si>
   <si>
     <t>DT1.5K</t>
+  </si>
+  <si>
+    <t>80HU15M</t>
+  </si>
+  <si>
+    <t>100HU17M</t>
   </si>
 </sst>
 </file>
@@ -5958,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
   <dimension ref="A2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6196,7 +6196,7 @@
         <v>454</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>105</v>
@@ -6205,7 +6205,7 @@
         <v>403</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>403</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6478,7 +6478,7 @@
         <v>488</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>105</v>
@@ -6757,7 +6757,7 @@
         <v>502</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>105</v>
@@ -6918,7 +6918,7 @@
         <v>508</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>105</v>
@@ -6927,7 +6927,7 @@
         <v>405</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
@@ -6944,7 +6944,7 @@
         <v>509</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>105</v>
@@ -6953,7 +6953,7 @@
         <v>405</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
@@ -6970,7 +6970,7 @@
         <v>484</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>105</v>
@@ -6993,7 +6993,7 @@
         <v>488</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>105</v>
@@ -7002,7 +7002,7 @@
         <v>405</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
@@ -7019,7 +7019,7 @@
         <v>512</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>105</v>
@@ -7042,7 +7042,7 @@
         <v>515</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>105</v>
@@ -7051,7 +7051,7 @@
         <v>405</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>502</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>105</v>

--- a/prev_known.xlsx
+++ b/prev_known.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\powerof10-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D214273-CCE5-4128-BDA1-AC2CB8DDCE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C982F21B-E3F1-4C4A-B311-A056E2191E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{59E39808-5DD1-48A0-8CDE-64F5926DA7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="other_known" sheetId="2" r:id="rId1"/>
     <sheet name="C&amp;C_2022_overall" sheetId="1" r:id="rId2"/>
     <sheet name="C&amp;C_2022_ag_female" sheetId="3" r:id="rId3"/>
     <sheet name="C&amp;C_2022_ag_male" sheetId="4" r:id="rId4"/>
+    <sheet name="C&amp;C_2022_masters_female" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="sp7.26k_m_all" localSheetId="1">'C&amp;C_2022_overall'!$G$20</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="927">
   <si>
     <r>
       <t>C&amp;C AC Track and Field records  - Overall club records</t>
@@ -2022,6 +2023,885 @@
   </si>
   <si>
     <t>100HU17M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann Turrington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4m 32.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen Leggate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Braverman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,000m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Knight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Hurdles 100m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie Churchill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Moindrot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawn Perry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot  4kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discus 1kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javelin 600g pre 1999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Post 1999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carole Morris Linda Cowan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer 4kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carole Morris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k Walk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Kiff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3k Walk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Mile walk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Roberts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heptathlon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*100 Relay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R Roberts,H Grant,J Packman,S Barnett  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*400 Relay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:10.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:29.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:04.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35:15.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:17.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:24.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women 35+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophie Detienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacy McGivern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Hurdles 80m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romana Wallace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javelin 600g post 1999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Mile Walk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R Roberts,H Grant,J Lasenby,A N Other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:18.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:50.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:48.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:58.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34:24.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:24.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:16.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:33.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women 40+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilary Vogel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan Lasenby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicola McBride </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helen Grant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Wilson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Kelk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah McGrath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romana Martin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javelin 600g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Packman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H Grant,J Lasenby,D Potter,M Holmes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:27.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:52.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:42.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41:53.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:12.81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:21.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:55.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:45.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women 45+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iona Graham-Hagg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefanie Godfrey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300m Hurdles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot  3kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javelin 500g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer 3kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamela Abbott </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Phillips,J Arthur, ANO, ANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:32.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:05.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:01.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:36.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46:18.69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:40.69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:23.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:12.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:27.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:24.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:55.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women 50+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Holmes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iris Hornsey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5;38.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12;02.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6;01.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Hurdles  80m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6;50.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9;35.61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12;17.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18;55.86  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6;10.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:45.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women 55+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margaret Phillips </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthea Bramford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan Barnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:59.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:53.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:28.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:00.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:11.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:15.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:30.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:42.1 </t>
+  </si>
+  <si>
+    <t>Women 60+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:13.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:30.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26:26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.71 </t>
+  </si>
+  <si>
+    <t>Women 65+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot  kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.83 </t>
+  </si>
+  <si>
+    <t>Women 70+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot  2kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot 3kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discus 0.75kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javelin 400g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer 2kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500m walk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000m walk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3m 33.4 (NR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:16.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:01.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:41.9 </t>
+  </si>
+  <si>
+    <t>Women 75+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:28.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:23.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:53.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:45.2 </t>
+  </si>
+  <si>
+    <t>Women 80+</t>
+  </si>
+  <si>
+    <t>Women 85+</t>
+  </si>
+  <si>
+    <t>V35</t>
+  </si>
+  <si>
+    <t>V40</t>
+  </si>
+  <si>
+    <t>V45</t>
+  </si>
+  <si>
+    <t>V50</t>
+  </si>
+  <si>
+    <t>V55</t>
+  </si>
+  <si>
+    <t>V60</t>
+  </si>
+  <si>
+    <t>V65</t>
+  </si>
+  <si>
+    <t>V70</t>
+  </si>
+  <si>
+    <t>V75</t>
+  </si>
+  <si>
+    <t>V80</t>
+  </si>
+  <si>
+    <t>V85</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>MileW</t>
+  </si>
+  <si>
+    <t>3000W</t>
+  </si>
+  <si>
+    <t>2000W</t>
+  </si>
+  <si>
+    <t>HepW</t>
+  </si>
+  <si>
+    <t>80HW</t>
+  </si>
+  <si>
+    <t>300H</t>
+  </si>
+  <si>
+    <t>2000SCW</t>
+  </si>
+  <si>
+    <t>Checked Po10 for hammer weight</t>
+  </si>
+  <si>
+    <t>SP2K</t>
+  </si>
+  <si>
+    <t>HT2K</t>
+  </si>
+  <si>
+    <t>1500W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:37.7 </t>
   </si>
 </sst>
 </file>
@@ -5958,8 +6838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33EFF66-21E6-4C12-9015-9A2807500A5E}">
   <dimension ref="A2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7933,4 +8813,5019 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC38CDD-B783-4755-B4DD-3225A4BF53C5}">
+  <dimension ref="A1:J226"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="36.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C53" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C55" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C58" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C59" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C62" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C68" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C70" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C71" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C72" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C74" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C75" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C76" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C77" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C78" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C79" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C80" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C81" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C82" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C83" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C84" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C88" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C95" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C96" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C97" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C100" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C101" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C103" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C105" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C106" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C107" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C108" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C109" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C110" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C111" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C112" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C113" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C114" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C115" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C118" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C120" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C121" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C122" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C123" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C124" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C125" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C126" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C127" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C129" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C130" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C131" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C132" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C133" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C134" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C135" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C136" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C137" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I137" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C138" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C139" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I139" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C140" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C141" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I141" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I143" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C144" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C145" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C146" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C147" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C148" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C151" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C152" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C153" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C154" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C155" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C156" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C157" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C158" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C159" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C160" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C161" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C164" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C165" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C166" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I166" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C167" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C168" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C169" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C170" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C171" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I171" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C172" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C173" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I173" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C174" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C175" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C176" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C179" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C180" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C181" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G181" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I181" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C182" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C183" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C184" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I184" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C185" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I185" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C186" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I186" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C187" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="G187" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I187" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C188" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G188" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I188" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C189" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I189" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C190" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="G190" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I190" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C193" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I193" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C194" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G194" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H194" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I194" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="195" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C195" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I195" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="196" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C196" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I196" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="197" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C197" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="E197" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G197" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H197" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I197" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="198" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C198" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I198" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="199" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C199" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G199" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H199" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I199" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="200" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C200" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="H200" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I200" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="201" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C201" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="202" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C202" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="H202" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I202" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="203" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C203" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H203" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="204" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C204" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F204" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G204" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="H204" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I204" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="205" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C205" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="H205" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I205" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="206" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C206" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G206" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I206" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="207" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C207" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F207" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G207" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H207" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I207" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H209" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I209" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C210" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F210" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G210" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H210" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I210" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C211" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="F211" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H211" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I211" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C212" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G212" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H212" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I212" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C213" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I213" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C214" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G214" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H214" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I214" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C215" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G215" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H215" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I215" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C216" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G216" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H216" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I216" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C217" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G217" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="H217" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I217" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C218" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="H218" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C219" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G219" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="H219" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I219" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C220" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F220" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H220" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I220" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C221" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G221" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="H221" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I221" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C222" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G222" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="H222" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I222" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C223" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="H223" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I223" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C224" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="E224" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G224" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="H224" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I224" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I226" s="10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>